--- a/Projektdokumentation/Projektstrukturplan.xlsx
+++ b/Projektdokumentation/Projektstrukturplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic_\Documents\HTL\3 Klasse\SYP\gitRepos\SYPPROJECT\Projektdokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic_\Documents\Unreal Projects\RotS\Projektdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B3BF0B-A37F-4A38-9B62-3CBDA2213674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43251BAD-97A9-4CA4-81A9-EDC8E4956C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{537F79E6-524A-4F4C-B0B4-61A8A043D713}"/>
   </bookViews>
@@ -207,7 +207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +244,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -257,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -265,6 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -601,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A06572-302C-4C8E-9BF4-4314B289F1BA}">
   <dimension ref="A4:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +650,7 @@
       <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J4" t="s">
@@ -663,7 +670,7 @@
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E5" t="s">
@@ -678,7 +685,7 @@
       <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J5" t="s">
@@ -710,7 +717,7 @@
       <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="J6" t="s">
@@ -742,7 +749,7 @@
       <c r="H7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="J7" s="3"/>
